--- a/biology/Histoire de la zoologie et de la botanique/Tsin_Tang/Tsin_Tang.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Tsin_Tang/Tsin_Tang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tsin Tang (chinois traditionnel 唐 進 ; chinois simplifié : 唐 进 [Táng Jìn]), né en 1897 et mort en 1984, est un botaniste et taxonomiste chinois. Le naturaliste faisait partie de l'Institut de botanique systématique et de l'Academia Sinica[1], spécialiste des monocotylédones[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tsin Tang (chinois traditionnel 唐 進 ; chinois simplifié : 唐 进 [Táng Jìn]), né en 1897 et mort en 1984, est un botaniste et taxonomiste chinois. Le naturaliste faisait partie de l'Institut de botanique systématique et de l'Academia Sinica, spécialiste des monocotylédones.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>w. fa-tsuan, tsin Tang. 1980. Flora reipublicae popularis sinicae, Science Press, 308 pp.
 tsin Tang, w. fa-tsuan. 1961. Flora reipublicae popularis sinicae. Science Press, 261 pp.</t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Éponymie
-Carex tangiana Ohwi, 1936
+          <t>Éponymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Carex tangiana Ohwi, 1936
 Carex tangii Kük., 1932
 Peristylus tangianus — S.Y.Hu, 1974 [≡ Herminium tangianum (S.Y.Hu) K.Y.Lang, 1987]
 Poa tangii Hitchc., 1930
